--- a/Data/Input/FundsDistributions_TestCaseV4.0.xlsx
+++ b/Data/Input/FundsDistributions_TestCaseV4.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmahe\Documents\UiPath\FederalBotFactory\FundsDistribution\FundDistributions\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95CF644-8A68-4B03-A8DD-44854FFEB931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEAEC6A-9E8D-4A03-90C6-0267383F1BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{688C6AAD-5601-4545-9C7C-9E8F4B197C36}"/>
   </bookViews>
@@ -32,7 +32,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="82">
   <si>
     <t>Budget Level</t>
   </si>
@@ -234,21 +233,6 @@
     <t>4510000000</t>
   </si>
   <si>
-    <t>Demo 32</t>
-  </si>
-  <si>
-    <t>Demo 33</t>
-  </si>
-  <si>
-    <t>Demo 34</t>
-  </si>
-  <si>
-    <t>Demo 35</t>
-  </si>
-  <si>
-    <t>Demo 38</t>
-  </si>
-  <si>
     <t>Demo 36</t>
   </si>
   <si>
@@ -277,6 +261,30 @@
   </si>
   <si>
     <t>Adjust</t>
+  </si>
+  <si>
+    <t>Demo 64</t>
+  </si>
+  <si>
+    <t>Demo 63</t>
+  </si>
+  <si>
+    <t>Demo 65</t>
+  </si>
+  <si>
+    <t>Demo 66</t>
+  </si>
+  <si>
+    <t>Demo 85</t>
+  </si>
+  <si>
+    <t>Demo 86</t>
+  </si>
+  <si>
+    <t>Demo 87</t>
+  </si>
+  <si>
+    <t>Demo 88</t>
   </si>
 </sst>
 </file>
@@ -638,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1A48C0-806C-4604-9A42-1CA060CE3249}">
-  <dimension ref="A1:AA9"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -748,7 +756,7 @@
         <v>23</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AA1" s="3"/>
     </row>
@@ -757,7 +765,7 @@
         <v>53</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C2" s="4">
         <v>44842</v>
@@ -820,13 +828,13 @@
         <v>56</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="X2" s="3">
         <v>1</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AA2" s="3"/>
     </row>
@@ -835,7 +843,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C3" s="4">
         <v>44842</v>
@@ -898,22 +906,22 @@
         <v>56</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="X3" s="3">
         <v>1</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AA3" s="3"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C4" s="4">
         <v>44842</v>
@@ -922,19 +930,19 @@
         <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F4" s="4">
-        <v>44143</v>
-      </c>
-      <c r="G4" s="3">
-        <v>25</v>
+        <v>44112</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="3">
-        <v>2019</v>
+        <v>43</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>29</v>
@@ -954,11 +962,11 @@
       <c r="O4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="3">
-        <v>251000</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>4450000000</v>
+      <c r="P4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>29</v>
@@ -970,28 +978,28 @@
         <v>29</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="X4" s="3">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AA4" s="3"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C5" s="4">
         <v>44842</v>
@@ -1000,19 +1008,19 @@
         <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F5" s="4">
         <v>44143</v>
       </c>
-      <c r="G5" s="3">
-        <v>25</v>
+      <c r="G5" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="3">
-        <v>2019</v>
+        <v>43</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>29</v>
@@ -1032,11 +1040,11 @@
       <c r="O5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="3">
-        <v>251000</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>4450000000</v>
+      <c r="P5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>29</v>
@@ -1048,40 +1056,40 @@
         <v>29</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="X5" s="3">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AA5" s="3"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>73</v>
+    <row r="6" spans="1:27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
       </c>
       <c r="C6" s="4">
         <v>44842</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>55</v>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
       </c>
       <c r="F6" s="4">
-        <v>44143</v>
+        <v>44112</v>
       </c>
       <c r="G6" s="3">
         <v>25</v>
@@ -1089,8 +1097,8 @@
       <c r="H6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="3">
-        <v>2019</v>
+      <c r="I6" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>29</v>
@@ -1114,7 +1122,7 @@
         <v>251000</v>
       </c>
       <c r="Q6" s="3">
-        <v>4450000000</v>
+        <v>4610000010</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>29</v>
@@ -1126,37 +1134,36 @@
         <v>29</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="X6" s="3">
         <v>1</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA6" s="3"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
       </c>
       <c r="C7" s="4">
         <v>44842</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>55</v>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
       </c>
       <c r="F7" s="4">
         <v>44143</v>
@@ -1168,7 +1175,7 @@
         <v>25</v>
       </c>
       <c r="I7" s="3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>29</v>
@@ -1192,7 +1199,7 @@
         <v>251000</v>
       </c>
       <c r="Q7" s="3">
-        <v>4450000000</v>
+        <v>4610000010</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>29</v>
@@ -1204,29 +1211,182 @@
         <v>29</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="X7" s="3">
         <v>1</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA7" s="3"/>
+        <v>72</v>
+      </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="C8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="4">
+        <v>44112</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="C9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4">
+        <v>44143</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="C10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="C11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1240,10 +1400,13 @@
   <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD9"/>
+      <selection activeCell="A2" sqref="A2:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
@@ -1319,7 +1482,7 @@
         <v>23</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1327,7 +1490,7 @@
         <v>53</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C2" s="4">
         <v>44842</v>
@@ -1396,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1404,7 +1567,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C3" s="4">
         <v>44842</v>
@@ -1473,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1481,7 +1644,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C4" s="4">
         <v>44842</v>
@@ -1555,7 +1718,7 @@
         <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C5" s="4">
         <v>44842</v>
@@ -1629,7 +1792,7 @@
         <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C6" s="4">
         <v>44842</v>
@@ -1703,7 +1866,7 @@
         <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C7" s="4">
         <v>44842</v>
@@ -1777,7 +1940,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C8" s="4">
         <v>44842</v>
@@ -1852,7 +2015,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C9" s="4">
         <v>44842</v>
@@ -1929,13 +2092,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CFF111-A09B-478B-B40D-4287857CF484}">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="25" max="25" width="13.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
@@ -2010,13 +2176,16 @@
       <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C2" s="4">
         <v>44842</v>
@@ -2083,6 +2252,9 @@
       </c>
       <c r="X2" s="3">
         <v>1</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -2090,7 +2262,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C3" s="4">
         <v>44842</v>
@@ -2158,35 +2330,38 @@
       <c r="X3" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="Y3" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>68</v>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
       </c>
       <c r="C4" s="4">
         <v>44842</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>42</v>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
       </c>
       <c r="F4" s="4">
         <v>44112</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>27</v>
+      <c r="G4" s="3">
+        <v>25</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>61</v>
+        <v>25</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2020</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>29</v>
@@ -2206,11 +2381,11 @@
       <c r="O4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>63</v>
+      <c r="P4" s="3">
+        <v>251000</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>4610000010</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>29</v>
@@ -2222,91 +2397,19 @@
         <v>29</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="W4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="X4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA4"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="4">
-        <v>44842</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="4">
-        <v>44112</v>
-      </c>
-      <c r="G5" s="3">
-        <v>25</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="3">
-        <v>2020</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" s="3">
-        <v>251000</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>4610000010</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="X5" s="3">
+      <c r="X4" s="3">
         <v>1</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2319,7 +2422,7 @@
   <dimension ref="A2:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2891,10 +2994,13 @@
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
@@ -2975,7 +3081,7 @@
         <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C2" s="4">
         <v>44842</v>
@@ -3049,7 +3155,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C3" s="4">
         <v>44842</v>
@@ -3124,7 +3230,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C4" s="4">
         <v>44842</v>
@@ -3199,7 +3305,7 @@
         <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C5" s="4">
         <v>44842</v>

--- a/Data/Input/FundsDistributions_TestCaseV4.0.xlsx
+++ b/Data/Input/FundsDistributions_TestCaseV4.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmahe\Documents\UiPath\FederalBotFactory\FundsDistribution\FundDistributions\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEAEC6A-9E8D-4A03-90C6-0267383F1BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C33B83-4DEB-45EA-B6F5-2383ED2D80EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{688C6AAD-5601-4545-9C7C-9E8F4B197C36}"/>
   </bookViews>
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1A48C0-806C-4604-9A42-1CA060CE3249}">
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -828,13 +828,13 @@
         <v>56</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="X2" s="3">
         <v>1</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA2" s="3"/>
     </row>
@@ -906,13 +906,13 @@
         <v>56</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="X3" s="3">
         <v>1</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA3" s="3"/>
     </row>
@@ -984,13 +984,13 @@
         <v>46</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="X4" s="3" t="s">
         <v>40</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA4" s="3"/>
     </row>
@@ -1062,13 +1062,13 @@
         <v>46</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="X5" s="3" t="s">
         <v>40</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA5" s="3"/>
     </row>
@@ -1140,13 +1140,13 @@
         <v>51</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="X6" s="3">
         <v>1</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:27" customFormat="1" x14ac:dyDescent="0.35">
@@ -1217,13 +1217,13 @@
         <v>51</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="X7" s="3">
         <v>1</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
@@ -1294,13 +1294,13 @@
         <v>38</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="X8" s="3" t="s">
         <v>40</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.35">
@@ -1371,13 +1371,13 @@
         <v>38</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="X9" s="3" t="s">
         <v>40</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.35">

--- a/Data/Input/FundsDistributions_TestCaseV4.0.xlsx
+++ b/Data/Input/FundsDistributions_TestCaseV4.0.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmahe\Documents\UiPath\FederalBotFactory\FundsDistribution\FundDistributions\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C33B83-4DEB-45EA-B6F5-2383ED2D80EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24619E65-5ACD-454D-9710-BF4A7D45E8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{688C6AAD-5601-4545-9C7C-9E8F4B197C36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="82">
   <si>
     <t>Budget Level</t>
   </si>
@@ -242,15 +243,6 @@
     <t>Demo 39</t>
   </si>
   <si>
-    <t>Demo 47</t>
-  </si>
-  <si>
-    <t>Demo 48</t>
-  </si>
-  <si>
-    <t>Demo 49</t>
-  </si>
-  <si>
     <t>Demo 50</t>
   </si>
   <si>
@@ -275,16 +267,25 @@
     <t>Demo 66</t>
   </si>
   <si>
-    <t>Demo 85</t>
-  </si>
-  <si>
-    <t>Demo 86</t>
-  </si>
-  <si>
-    <t>Demo 87</t>
-  </si>
-  <si>
-    <t>Demo 88</t>
+    <t>25.12001919AD.2020.A000000000.A00000.A0000.R00000.ROASEC.DM0000.000000.4610000000.A000000000.A000000000.A000000000</t>
+  </si>
+  <si>
+    <t>Demo 89</t>
+  </si>
+  <si>
+    <t>Demo 91</t>
+  </si>
+  <si>
+    <t>Demo 92</t>
+  </si>
+  <si>
+    <t>Demo 93</t>
+  </si>
+  <si>
+    <t>Demo 94</t>
+  </si>
+  <si>
+    <t>Demo 95</t>
   </si>
 </sst>
 </file>
@@ -646,22 +647,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1A48C0-806C-4604-9A42-1CA060CE3249}">
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.36328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="114.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.08984375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" style="3" bestFit="1" customWidth="1"/>
@@ -672,17 +673,17 @@
     <col min="16" max="17" width="10.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.7265625" style="3" customWidth="1"/>
-    <col min="23" max="23" width="21.6328125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="9.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.36328125" style="3" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="17.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="32.1796875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="26.54296875" style="3" customWidth="1"/>
     <col min="27" max="27" width="23.08984375" customWidth="1"/>
     <col min="28" max="28" width="8.7265625" style="3" customWidth="1"/>
     <col min="29" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -756,7 +757,7 @@
         <v>23</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AA1" s="3"/>
     </row>
@@ -828,13 +829,13 @@
         <v>56</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="X2" s="3">
         <v>1</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AA2" s="3"/>
     </row>
@@ -906,22 +907,22 @@
         <v>56</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="X3" s="3">
         <v>1</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AA3" s="3"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="4">
         <v>44842</v>
@@ -930,19 +931,19 @@
         <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F4" s="4">
         <v>44112</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>27</v>
+      <c r="G4" s="3">
+        <v>25</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>61</v>
+        <v>25</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2019</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>29</v>
@@ -962,11 +963,11 @@
       <c r="O4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>63</v>
+      <c r="P4" s="3">
+        <v>251000</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>4450000000</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>29</v>
@@ -978,28 +979,28 @@
         <v>29</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="X4" s="3">
+        <v>1</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AA4" s="3"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="4">
         <v>44842</v>
@@ -1008,19 +1009,19 @@
         <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F5" s="4">
         <v>44143</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>27</v>
+      <c r="G5" s="3">
+        <v>25</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>61</v>
+        <v>25</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2019</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>29</v>
@@ -1040,11 +1041,11 @@
       <c r="O5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>63</v>
+      <c r="P5" s="3">
+        <v>251000</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>4450000000</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>29</v>
@@ -1056,37 +1057,37 @@
         <v>29</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="X5" s="3">
+        <v>1</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AA5" s="3"/>
     </row>
-    <row r="6" spans="1:27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" t="s">
-        <v>80</v>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="C6" s="4">
         <v>44842</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>50</v>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="F6" s="4">
         <v>44112</v>
@@ -1097,8 +1098,8 @@
       <c r="H6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>28</v>
+      <c r="I6" s="3">
+        <v>2019</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>29</v>
@@ -1122,7 +1123,7 @@
         <v>251000</v>
       </c>
       <c r="Q6" s="3">
-        <v>4610000010</v>
+        <v>4450000000</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>29</v>
@@ -1134,36 +1135,37 @@
         <v>29</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="X6" s="3">
         <v>1</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" t="s">
-        <v>80</v>
+        <v>69</v>
+      </c>
+      <c r="AA6" s="3"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="C7" s="4">
         <v>44842</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>50</v>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="F7" s="4">
         <v>44143</v>
@@ -1175,7 +1177,7 @@
         <v>25</v>
       </c>
       <c r="I7" s="3">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>29</v>
@@ -1199,7 +1201,7 @@
         <v>251000</v>
       </c>
       <c r="Q7" s="3">
-        <v>4610000010</v>
+        <v>4450000000</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>29</v>
@@ -1211,27 +1213,28 @@
         <v>29</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="X7" s="3">
         <v>1</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>73</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="AA7" s="3"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C8" s="4">
         <v>44842</v>
@@ -1240,7 +1243,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F8" s="4">
         <v>44112</v>
@@ -1249,10 +1252,10 @@
         <v>27</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>29</v>
@@ -1273,10 +1276,10 @@
         <v>34</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>29</v>
@@ -1288,27 +1291,28 @@
         <v>29</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="X8" s="3" t="s">
         <v>40</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>73</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="AA8" s="3"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C9" s="4">
         <v>44842</v>
@@ -1317,7 +1321,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F9" s="4">
         <v>44143</v>
@@ -1326,10 +1330,10 @@
         <v>27</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>29</v>
@@ -1350,10 +1354,10 @@
         <v>34</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>29</v>
@@ -1365,28 +1369,1257 @@
         <v>29</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="X9" s="3" t="s">
         <v>40</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>73</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="AA9" s="3"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="C10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="A10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="4">
+        <v>44112</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA10" s="3"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="C11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="A11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="4">
+        <v>44143</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="4">
+        <v>44112</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA12" s="3"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="4">
+        <v>44143</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA13" s="3"/>
+    </row>
+    <row r="14" spans="1:27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="4">
+        <v>44112</v>
+      </c>
+      <c r="G14" s="3">
+        <v>25</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" s="3">
+        <v>251000</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>4610000010</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X14" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="4">
+        <v>44143</v>
+      </c>
+      <c r="G15" s="3">
+        <v>25</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2020</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" s="3">
+        <v>251000</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>4610000010</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X15" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="4">
+        <v>44112</v>
+      </c>
+      <c r="G16" s="3">
+        <v>25</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16" s="3">
+        <v>251000</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>4610000010</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="4">
+        <v>44143</v>
+      </c>
+      <c r="G17" s="3">
+        <v>25</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2020</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" s="3">
+        <v>251000</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>4610000010</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="4">
+        <v>44112</v>
+      </c>
+      <c r="G18" s="3">
+        <v>25</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="3">
+        <v>251000</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>4610000010</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X18" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="4">
+        <v>44143</v>
+      </c>
+      <c r="G19" s="3">
+        <v>25</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2020</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" s="3">
+        <v>251000</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>4610000010</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X19" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="4">
+        <v>44112</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="4">
+        <v>44143</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="4">
+        <v>44112</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="4">
+        <v>44143</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="4">
+        <v>44112</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="4">
+        <v>44143</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1396,11 +2629,334 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A908E31C-7B0E-4A7B-9795-54A382286CF7}">
-  <dimension ref="A1:AA9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0389686F-D159-49D0-98B0-6187339D6D80}">
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD9"/>
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="4">
+        <v>44172</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="4">
+        <v>44172</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="4">
+        <v>44172</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A908E31C-7B0E-4A7B-9795-54A382286CF7}">
+  <dimension ref="A1:AA25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection sqref="A1:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1408,7 +2964,7 @@
     <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1482,15 +3038,15 @@
         <v>23</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C2" s="4">
         <v>44842</v>
@@ -1559,15 +3115,15 @@
         <v>1</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C3" s="4">
         <v>44842</v>
@@ -1636,15 +3192,15 @@
         <v>1</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C4" s="4">
         <v>44842</v>
@@ -1653,19 +3209,19 @@
         <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F4" s="4">
         <v>44112</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>27</v>
+      <c r="G4" s="3">
+        <v>25</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>61</v>
+        <v>25</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2019</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>29</v>
@@ -1685,11 +3241,11 @@
       <c r="O4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>63</v>
+      <c r="P4" s="3">
+        <v>251000</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>4450000000</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>29</v>
@@ -1701,24 +3257,27 @@
         <v>29</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="W4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="X4" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="X4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C5" s="4">
         <v>44842</v>
@@ -1727,19 +3286,19 @@
         <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F5" s="4">
         <v>44143</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>27</v>
+      <c r="G5" s="3">
+        <v>25</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>61</v>
+        <v>25</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2019</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>29</v>
@@ -1759,11 +3318,11 @@
       <c r="O5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>63</v>
+      <c r="P5" s="3">
+        <v>251000</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>4450000000</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>29</v>
@@ -1775,33 +3334,36 @@
         <v>29</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="X5" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="X5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="3" t="s">
         <v>69</v>
       </c>
+    </row>
+    <row r="6" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="C6" s="4">
         <v>44842</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>50</v>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="F6" s="4">
         <v>44112</v>
@@ -1812,8 +3374,8 @@
       <c r="H6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>28</v>
+      <c r="I6" s="3">
+        <v>2019</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>29</v>
@@ -1837,7 +3399,7 @@
         <v>251000</v>
       </c>
       <c r="Q6" s="3">
-        <v>4610000010</v>
+        <v>4450000000</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>29</v>
@@ -1849,10 +3411,10 @@
         <v>29</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>39</v>
@@ -1860,22 +3422,25 @@
       <c r="X6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="Y6" s="3" t="s">
         <v>69</v>
       </c>
+    </row>
+    <row r="7" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="C7" s="4">
         <v>44842</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>50</v>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="F7" s="4">
         <v>44143</v>
@@ -1887,7 +3452,7 @@
         <v>25</v>
       </c>
       <c r="I7" s="3">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>29</v>
@@ -1911,7 +3476,7 @@
         <v>251000</v>
       </c>
       <c r="Q7" s="3">
-        <v>4610000010</v>
+        <v>4450000000</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>29</v>
@@ -1923,10 +3488,10 @@
         <v>29</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W7" s="3" t="s">
         <v>39</v>
@@ -1934,13 +3499,16 @@
       <c r="X7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Y7" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C8" s="4">
         <v>44842</v>
@@ -1949,7 +3517,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F8" s="4">
         <v>44112</v>
@@ -1958,10 +3526,10 @@
         <v>27</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>29</v>
@@ -1982,10 +3550,10 @@
         <v>34</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>29</v>
@@ -1997,10 +3565,10 @@
         <v>29</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>39</v>
@@ -2008,14 +3576,13 @@
       <c r="X8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AA8"/>
-    </row>
-    <row r="9" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C9" s="4">
         <v>44842</v>
@@ -2024,7 +3591,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F9" s="4">
         <v>44143</v>
@@ -2033,10 +3600,10 @@
         <v>27</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>29</v>
@@ -2057,10 +3624,10 @@
         <v>34</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>29</v>
@@ -2072,10 +3639,10 @@
         <v>29</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>39</v>
@@ -2083,18 +3650,1207 @@
       <c r="X9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AA9"/>
+    </row>
+    <row r="10" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="4">
+        <v>44112</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="4">
+        <v>44143</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="4">
+        <v>44112</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="4">
+        <v>44143</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="4">
+        <v>44112</v>
+      </c>
+      <c r="G14" s="3">
+        <v>25</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" s="3">
+        <v>251000</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>4610000010</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="4">
+        <v>44143</v>
+      </c>
+      <c r="G15" s="3">
+        <v>25</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2020</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" s="3">
+        <v>251000</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>4610000010</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="4">
+        <v>44112</v>
+      </c>
+      <c r="G16" s="3">
+        <v>25</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16" s="3">
+        <v>251000</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>4610000010</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="4">
+        <v>44143</v>
+      </c>
+      <c r="G17" s="3">
+        <v>25</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2020</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" s="3">
+        <v>251000</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>4610000010</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="4">
+        <v>44112</v>
+      </c>
+      <c r="G18" s="3">
+        <v>25</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="3">
+        <v>251000</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>4610000010</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="4">
+        <v>44143</v>
+      </c>
+      <c r="G19" s="3">
+        <v>25</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2020</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" s="3">
+        <v>251000</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>4610000010</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="4">
+        <v>44112</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA20"/>
+    </row>
+    <row r="21" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="4">
+        <v>44143</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA21"/>
+    </row>
+    <row r="22" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="4">
+        <v>44112</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA22"/>
+    </row>
+    <row r="23" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="4">
+        <v>44143</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA23"/>
+    </row>
+    <row r="24" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="4">
+        <v>44112</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA24"/>
+    </row>
+    <row r="25" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="4">
+        <v>44143</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CFF111-A09B-478B-B40D-4287857CF484}">
   <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
@@ -2177,7 +4933,7 @@
         <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
@@ -2254,7 +5010,7 @@
         <v>1</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -2331,7 +5087,7 @@
         <v>40</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AA3"/>
     </row>
@@ -2409,7 +5165,7 @@
         <v>1</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2417,7 +5173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD68D21-E5B9-46C1-A229-0E7736BD3408}">
   <dimension ref="A2:X6"/>
   <sheetViews>
@@ -2803,7 +5559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA25C96D-D544-418A-BD89-0869C7521EDA}">
   <dimension ref="A1:X2"/>
   <sheetViews>
@@ -2989,7 +5745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006E2999-BAC9-48E5-93FC-AE3DC0C400DA}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
@@ -3081,7 +5837,7 @@
         <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C2" s="4">
         <v>44842</v>
@@ -3155,7 +5911,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C3" s="4">
         <v>44842</v>
@@ -3230,7 +5986,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C4" s="4">
         <v>44842</v>
@@ -3305,7 +6061,7 @@
         <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C5" s="4">
         <v>44842</v>
